--- a/data/trans_dic/P37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,59%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,01%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>14,33; 30,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>8,41; 20,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>12,04; 25,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>21,07; 38,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>9,76; 22,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>16,29; 33,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>11,53; 26,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>33,43; 47,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>13,9; 24,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>14,02; 25,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>13,12; 23,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>30,23; 40,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,49%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>11,48; 17,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>18,44; 25,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>14,11; 20,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>29,72; 37,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,85; 17,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>15,14; 21,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>14,49; 21,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>34,38; 41,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>12,25; 16,38</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>17,61; 22,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>15,16; 19,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>32,98; 37,84</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,48%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>11,92; 16,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>15,36; 20,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,36; 16,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>22,66; 30,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>13,8; 18,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>16,1; 20,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>15,56; 20,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>33,4; 38,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>13,55; 16,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>16,46; 19,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>14,64; 17,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>28,87; 33,65</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,5%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>10,56; 16,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,06; 18,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,82; 19,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,0; 34,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,36; 19,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>14,4; 20,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>12,91; 18,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>31,83; 62,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,6; 16,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>14,49; 18,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,32; 17,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>30,99; 50,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,64%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>11,32; 15,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,99; 20,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>12,98; 17,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>33,51; 39,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>13,77; 18,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>15,87; 20,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>15,12; 20,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,7; 41,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>13,09; 16,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>16,14; 19,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>14,8; 18,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>35,78; 39,76</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,16%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,72; 15,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,35; 19,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,52; 16,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,89; 33,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,51; 17,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,91; 19,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,94; 18,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>35,94; 44,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>14,02; 15,75</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,03; 18,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,68; 17,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>33,7; 39,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>31,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,01%</t>
+          <t>34,83%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 30,2</t>
+          <t>12,52; 18,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 20,14</t>
+          <t>17,35; 23,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 25,06</t>
+          <t>14,29; 20,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,07; 38,0</t>
+          <t>28,26; 35,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 22,43</t>
+          <t>12,31; 17,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 33,01</t>
+          <t>16,34; 22,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 26,77</t>
+          <t>14,91; 20,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,43; 47,21</t>
+          <t>35,05; 40,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,9; 24,24</t>
+          <t>13,18; 16,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,02; 25,2</t>
+          <t>17,31; 21,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 23,23</t>
+          <t>15,58; 19,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,23; 40,88</t>
+          <t>32,59; 37,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,71%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>35,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>18,11%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>27,92%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 17,07</t>
+          <t>11,92; 16,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 25,53</t>
+          <t>15,36; 20,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,13</t>
+          <t>12,36; 16,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>29,72; 37,13</t>
+          <t>11,41; 27,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 17,53</t>
+          <t>13,8; 18,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,14; 21,64</t>
+          <t>16,1; 20,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,49; 21,03</t>
+          <t>15,56; 20,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,38; 41,06</t>
+          <t>33,27; 38,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,25; 16,38</t>
+          <t>13,55; 16,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,61; 22,41</t>
+          <t>16,46; 19,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 19,65</t>
+          <t>14,64; 17,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,98; 37,84</t>
+          <t>19,57; 32,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>29,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>16,44%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>39,33%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,46</t>
+          <t>10,56; 16,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,43</t>
+          <t>13,06; 18,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,68</t>
+          <t>13,82; 19,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,66; 30,1</t>
+          <t>26,16; 33,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,8</t>
+          <t>13,36; 19,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,98</t>
+          <t>14,4; 20,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 20,67</t>
+          <t>12,91; 18,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,4; 38,61</t>
+          <t>30,26; 72,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,55; 16,82</t>
+          <t>12,6; 16,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 19,82</t>
+          <t>14,49; 18,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,94</t>
+          <t>14,32; 17,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 33,65</t>
+          <t>29,76; 60,23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,72%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>36,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,75%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>36,18%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 16,15</t>
+          <t>11,32; 15,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,91</t>
+          <t>14,99; 20,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,45</t>
+          <t>12,98; 17,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,0; 34,17</t>
+          <t>32,69; 39,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,08</t>
+          <t>13,77; 18,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,18</t>
+          <t>15,87; 20,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,54</t>
+          <t>15,12; 20,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 62,38</t>
+          <t>28,41; 39,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,46</t>
+          <t>13,09; 16,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,75</t>
+          <t>16,14; 19,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 17,99</t>
+          <t>14,8; 18,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,99; 50,77</t>
+          <t>32,36; 38,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,35%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>34,16%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,85</t>
+          <t>12,72; 15,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,24</t>
+          <t>16,35; 19,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,68</t>
+          <t>14,52; 16,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,51; 39,81</t>
+          <t>22,78; 31,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 18,46</t>
+          <t>14,51; 17,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,9</t>
+          <t>16,91; 19,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,12; 20,06</t>
+          <t>15,94; 18,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,7; 41,08</t>
+          <t>34,66; 49,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,09; 16,38</t>
+          <t>14,02; 15,75</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 19,52</t>
+          <t>17,03; 18,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 18,36</t>
+          <t>15,68; 17,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>35,78; 39,76</t>
+          <t>31,0; 41,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,66%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,74%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>31,65%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,85%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>18,25%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,29%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>38,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>14,88%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>17,96%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,53%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>35,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,72; 15,11</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,35; 19,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,52; 16,93</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 33,41</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>14,51; 17,12</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,91; 19,58</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>15,94; 18,83</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>35,94; 44,22</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 15,75</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>17,03; 18,95</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>15,68; 17,44</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>33,7; 39,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P37-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P37-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,52; 18,35</t>
+          <t>12,71; 18,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,35; 23,38</t>
+          <t>17,37; 23,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,21</t>
+          <t>14,56; 20,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 35,54</t>
+          <t>28,36; 35,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 17,62</t>
+          <t>12,45; 17,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,34; 22,22</t>
+          <t>16,16; 21,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,91; 20,97</t>
+          <t>15,07; 21,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 40,62</t>
+          <t>35,11; 40,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,18; 16,87</t>
+          <t>13,31; 17,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,31; 21,85</t>
+          <t>17,66; 21,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,58; 19,53</t>
+          <t>15,32; 19,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,59; 37,11</t>
+          <t>32,48; 37,06</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,92; 16,46</t>
+          <t>11,75; 16,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 20,43</t>
+          <t>15,43; 20,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,68</t>
+          <t>12,53; 16,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,41; 27,99</t>
+          <t>11,47; 27,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,8; 18,8</t>
+          <t>14,08; 18,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,98</t>
+          <t>16,39; 21,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,56; 20,67</t>
+          <t>15,71; 21,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,27; 38,42</t>
+          <t>33,31; 38,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,55; 16,82</t>
+          <t>13,62; 16,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,46; 19,82</t>
+          <t>16,38; 19,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 17,94</t>
+          <t>14,6; 18,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,57; 32,33</t>
+          <t>19,07; 32,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,56; 16,15</t>
+          <t>10,53; 15,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,91</t>
+          <t>13,21; 18,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,45</t>
+          <t>13,92; 19,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,29</t>
+          <t>26,49; 33,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,36; 19,08</t>
+          <t>13,33; 18,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 20,18</t>
+          <t>14,4; 20,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 18,54</t>
+          <t>13,18; 18,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,26; 72,68</t>
+          <t>30,15; 70,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 16,46</t>
+          <t>12,69; 16,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 18,75</t>
+          <t>14,34; 18,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,32; 17,99</t>
+          <t>14,27; 18,24</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,76; 60,23</t>
+          <t>30,37; 60,45</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,85</t>
+          <t>11,47; 15,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,99; 20,24</t>
+          <t>14,97; 19,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,98; 17,68</t>
+          <t>13,23; 17,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>32,69; 39,08</t>
+          <t>32,69; 39,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,77; 18,46</t>
+          <t>13,71; 18,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 20,9</t>
+          <t>15,83; 20,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,12; 20,06</t>
+          <t>15,17; 20,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,41; 39,85</t>
+          <t>28,77; 39,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 16,38</t>
+          <t>13,3; 16,46</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 19,52</t>
+          <t>15,96; 19,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 18,36</t>
+          <t>14,86; 18,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,36; 38,56</t>
+          <t>31,64; 38,39</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,11</t>
+          <t>12,68; 14,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,35; 19,04</t>
+          <t>16,36; 19,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,52; 16,93</t>
+          <t>14,53; 17,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 31,9</t>
+          <t>22,33; 31,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,12</t>
+          <t>14,55; 17,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,58</t>
+          <t>16,95; 19,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,94; 18,83</t>
+          <t>15,93; 18,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,66; 49,65</t>
+          <t>34,91; 50,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,02; 15,75</t>
+          <t>14,07; 15,81</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,03; 18,95</t>
+          <t>17,03; 18,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,44</t>
+          <t>15,56; 17,43</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,2</t>
+          <t>30,79; 40,34</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105857</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>142112</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>115167</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>201201</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>102103</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>133037</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>119528</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>255361</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>207961</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>275149</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>234695</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>456562</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>88198; 125997</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>122007; 163918</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>98255; 135525</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>180195; 225214</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>85552; 122942</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>112629; 153098</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>101393; 141725</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>237153; 276099</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>183856; 235352</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>247095; 305660</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>206442; 261710</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>425743; 485802</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134445</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>179297</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148260</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>257161</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>157602</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>191792</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>187954</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>343350</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>292047</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>371090</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>336214</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>600511</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112966; 156830</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>157076; 207122</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>128096; 171652</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>136796; 333366</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>136353; 183840</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>168969; 221527</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>163825; 219666</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>319185; 368415</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>262886; 325112</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>335541; 408342</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>301619; 374495</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>410220; 692452</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>87789</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>118840</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>126463</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>210330</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>109958</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133365</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>122959</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>433928</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>197748</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>252205</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>249422</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>644258</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71338; 106336</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99960; 141336</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>105738; 148756</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>186690; 237049</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>91030; 129348</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>111885; 156312</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>103492; 147819</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>281411; 655423</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>172606; 225550</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>219920; 282754</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>220369; 281653</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>497413; 990182</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1134</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>126394</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>163921</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>144458</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>334750</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>165679</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>191156</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>182439</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>395937</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>292073</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>355077</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>326897</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>730687</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>107954; 146708</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>141437; 188254</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124064; 167524</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>302969; 362349</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>142348; 189625</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>166468; 216446</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>158327; 211548</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>314339; 431440</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>263272; 326001</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>318725; 390853</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>294437; 366452</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>638870; 775355</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2238</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>454486</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>604171</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>534348</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1003443</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>535342</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>649351</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>612880</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1428576</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>989828</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1253522</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1147228</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2432019</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>415220; 490166</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>559635; 654722</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>493254; 581097</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>772581; 1102113</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>491392; 576847</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>602855; 697599</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>564712; 659929</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1277459; 1863471</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>936157; 1051755</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1188426; 1318334</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1079768; 1209766</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2191821; 2871650</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>